--- a/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2282643556246241</v>
+        <v>0.3822774105787478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.422941548806041</v>
+        <v>-1.943150699525963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.203647086835041</v>
+        <v>-2.187484204461311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.043072769673344</v>
+        <v>-9.156996948144416</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009834526944935123</v>
+        <v>0.01456552900182987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05311997634871219</v>
+        <v>-0.07351267811453208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1049383957969957</v>
+        <v>-0.1076259071838636</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3602958572624232</v>
+        <v>-0.3649686984245896</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.71386691848341</v>
+        <v>11.62492422942107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.63234177541726</v>
+        <v>10.1455664242891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.972110965036176</v>
+        <v>8.726492008111608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.27439528950187</v>
+        <v>8.94048068822503</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6189771100548751</v>
+        <v>0.6036647596987128</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4598164788722391</v>
+        <v>0.4833961530974176</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5907878395863869</v>
+        <v>0.5607738010628243</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5595796136427136</v>
+        <v>0.5717514573362226</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.45783045485616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.9938639476162636</v>
+        <v>-0.9938639476162692</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6562831384616966</v>
@@ -749,7 +749,7 @@
         <v>0.06690585098599694</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.03308351683407001</v>
+        <v>-0.0330835168340702</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10.92398517215765</v>
+        <v>10.48517730590139</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.332654062711795</v>
+        <v>1.752503861730705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.849383112109844</v>
+        <v>-3.873062187736028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.271050584153244</v>
+        <v>-8.712737822531158</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4146695492921024</v>
+        <v>0.3898193908453385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0411836315891289</v>
+        <v>0.05447892875102538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1563592055872355</v>
+        <v>-0.1589934808911854</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2474714769513344</v>
+        <v>-0.2578625918035277</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.79275183373958</v>
+        <v>20.68682689729692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.15780506056394</v>
+        <v>12.45047527336735</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.075286318330977</v>
+        <v>6.361722349102092</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.757524871730585</v>
+        <v>5.428555115198768</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.995222214892025</v>
+        <v>0.9510521887541017</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4736393371137971</v>
+        <v>0.4954852094740562</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3145642434844405</v>
+        <v>0.3291142615053813</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2225420340551525</v>
+        <v>0.2059273859802453</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.20562023845422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.790068532208568</v>
+        <v>3.790068532208574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4216173881187261</v>
@@ -849,7 +849,7 @@
         <v>0.4242920329292492</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1146808157133199</v>
+        <v>0.11468081571332</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.909233052808169</v>
+        <v>8.537418330701293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.919652809226417</v>
+        <v>3.115982364000763</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.301948125773262</v>
+        <v>4.736302661892982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.238528069144144</v>
+        <v>-1.136664069792652</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2467565686855232</v>
+        <v>0.2308783379146739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08156987312221149</v>
+        <v>0.07524727173102697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1976222044874125</v>
+        <v>0.1813995945817869</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.0330836220714274</v>
+        <v>-0.03227478759393405</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.71941375018942</v>
+        <v>19.51867326938548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.4878347563429</v>
+        <v>13.89857302494486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.32627351853823</v>
+        <v>15.11307872922114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.046337759367946</v>
+        <v>8.926968980582767</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6307985507143726</v>
+        <v>0.6221693143916477</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4194821501465744</v>
+        <v>0.4101074738168322</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7035478489387823</v>
+        <v>0.6949564349893637</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3056324257525168</v>
+        <v>0.3036609792456262</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.483449773362759</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.564644552825937</v>
+        <v>5.564644552825926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4156436524819442</v>
@@ -949,7 +949,7 @@
         <v>0.1431957889839706</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1188885695142435</v>
+        <v>0.1188885695142432</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.54771661734875</v>
+        <v>11.66267261547562</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.940871780086111</v>
+        <v>2.881383237896553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4277223963662415</v>
+        <v>-0.06871476744544258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7665422870569779</v>
+        <v>1.220995340064529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2493621738521067</v>
+        <v>0.2492990246763387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06689074327955319</v>
+        <v>0.06483486163947533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.006640239675809343</v>
+        <v>-0.004733854229348152</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01546728146267424</v>
+        <v>0.02591630381881574</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.84876935148588</v>
+        <v>23.67831834895045</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.85981406869291</v>
+        <v>14.52603260479988</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.67426276326363</v>
+        <v>10.98493930176439</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.68627573006308</v>
+        <v>10.72451631755385</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6205651386987987</v>
+        <v>0.6081937473052801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3920110598955235</v>
+        <v>0.3791058517822784</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2974649669200157</v>
+        <v>0.3114150819209098</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2422723304407708</v>
+        <v>0.2491239703577849</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.410840311249155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.777377769049431</v>
+        <v>6.777377769049419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06373732408558166</v>
@@ -1049,7 +1049,7 @@
         <v>0.1137133105379908</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1186585010861805</v>
+        <v>0.1186585010861803</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.483758332197725</v>
+        <v>-2.127628058658288</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.163062159887636</v>
+        <v>4.639185425777627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04844966752746961</v>
+        <v>-0.04896782564838191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.945343561290559</v>
+        <v>1.786050865114411</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03621202953249551</v>
+        <v>-0.03174952077043783</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08762136548516217</v>
+        <v>0.07809377910710763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0009171034508524312</v>
+        <v>-0.0003754622435605009</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03163046447460593</v>
+        <v>0.02954464234900292</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.02339846058772</v>
+        <v>11.14250732926568</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.54784723283292</v>
+        <v>18.08498295935638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.46138670976944</v>
+        <v>12.63900508633834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.98093418774602</v>
+        <v>11.45013603883328</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.175477211568783</v>
+        <v>0.1793370129264661</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3396666790640741</v>
+        <v>0.331559719811683</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2587208985686579</v>
+        <v>0.2412940258563686</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2199791157266852</v>
+        <v>0.2094563913176946</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.891998517157296</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13.75236364772432</v>
+        <v>13.7523636477243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1363423187611817</v>
@@ -1149,7 +1149,7 @@
         <v>0.1302534176110142</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2206393856683193</v>
+        <v>0.2206393856683189</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.647865436725478</v>
+        <v>4.902534041132032</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.048257311982284</v>
+        <v>-1.407926311673783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.497030842919246</v>
+        <v>1.694663349187369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.164373217532878</v>
+        <v>8.496832331144519</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05963170955770682</v>
+        <v>0.06007677424573059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02424146561691926</v>
+        <v>-0.01685265327182187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03473219087126227</v>
+        <v>0.02601764140957206</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1387839781885155</v>
+        <v>0.1303909382550265</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.82559919366091</v>
+        <v>17.16114101135986</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.08853720296925</v>
+        <v>11.40634338172755</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.77106021995685</v>
+        <v>15.64928152619739</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19.09629500118446</v>
+        <v>18.46608378716885</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2367350482081658</v>
+        <v>0.238691739603271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1554275157483693</v>
+        <v>0.1597021638707019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2413588498577204</v>
+        <v>0.2446566276568095</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3270436949484905</v>
+        <v>0.3144905139627092</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6782856236790262</v>
+        <v>1.111559935376427</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.699102462235664</v>
+        <v>2.353910055389045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.473431005095256</v>
+        <v>3.89004828940817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.332392287741557</v>
+        <v>7.739105603242284</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.007871220078801349</v>
+        <v>0.01177273061204436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02825533378979978</v>
+        <v>0.0263131020807349</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04018535012676577</v>
+        <v>0.04686541611144437</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.08852430785675824</v>
+        <v>0.0925748629840424</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.41735222038434</v>
+        <v>9.930770262139681</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.07147078342822</v>
+        <v>12.40575666297478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.30914938983801</v>
+        <v>14.74402653133213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.77492458009834</v>
+        <v>16.18719533253956</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1215531154807833</v>
+        <v>0.1129845176470144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1446798646309818</v>
+        <v>0.150092082349106</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1808469079090382</v>
+        <v>0.190106018899529</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2063187500640163</v>
+        <v>0.2132045465122132</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>8.879923256312471</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.461115543845981</v>
+        <v>7.461115543845964</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3401124185128364</v>
@@ -1349,7 +1349,7 @@
         <v>0.2279974696963817</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1640641837942219</v>
+        <v>0.1640641837942215</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>11.8421664207672</v>
+        <v>12.20951958578674</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.913806250425156</v>
+        <v>7.992847906016906</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.183743923773371</v>
+        <v>6.487290095154583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.280497935541859</v>
+        <v>4.912124192218427</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2725633815947037</v>
+        <v>0.2779455002893035</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1741061358692133</v>
+        <v>0.1757696295392482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1534364359408607</v>
+        <v>0.159254380520796</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1122127895204134</v>
+        <v>0.1045890277845376</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.77970809993361</v>
+        <v>16.94650365462938</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.64822088054042</v>
+        <v>12.76024019063288</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.31921478551841</v>
+        <v>11.22242435623664</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.943462243247708</v>
+        <v>9.541517972483785</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4076186052210329</v>
+        <v>0.4132091545548734</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2957495173034206</v>
+        <v>0.2996424047748146</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3012981245489668</v>
+        <v>0.2974827575037657</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2236286774109436</v>
+        <v>0.2157307244439311</v>
       </c>
     </row>
     <row r="28">
